--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BDE/15/seed4/result_data_RandomForest.xlsx
@@ -542,7 +542,7 @@
         <v>-8.08</v>
       </c>
       <c r="E6" t="n">
-        <v>16.39530000000001</v>
+        <v>16.38680000000002</v>
       </c>
     </row>
     <row r="7">
@@ -556,7 +556,7 @@
         <v>-11.52</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.054800000000004</v>
+        <v>-7.166100000000005</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -584,7 +584,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.830399999999994</v>
+        <v>6.311499999999998</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.229300000000004</v>
+        <v>-7.037400000000003</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.859900000000003</v>
+        <v>-7.728900000000005</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.10970000000001</v>
+        <v>16.13190000000002</v>
       </c>
     </row>
     <row r="16">
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>7.195299999999999</v>
+        <v>7.2094</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.891900000000003</v>
+        <v>8.991199999999997</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-8.201000000000006</v>
+        <v>-8.388500000000004</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -890,13 +890,13 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.989100000000003</v>
+        <v>5.836400000000005</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.709500000000002</v>
+        <v>-8.774700000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -930,7 +930,7 @@
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.165199999999998</v>
+        <v>-7.240899999999999</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.36800000000001</v>
+        <v>17.31890000000002</v>
       </c>
     </row>
     <row r="34">
@@ -1026,7 +1026,7 @@
         <v>-19.24</v>
       </c>
       <c r="B35" t="n">
-        <v>8.681300000000002</v>
+        <v>8.715</v>
       </c>
       <c r="C35" t="n">
         <v>-13.02</v>
@@ -1035,7 +1035,7 @@
         <v>-9.9</v>
       </c>
       <c r="E35" t="n">
-        <v>16.3566</v>
+        <v>16.44190000000001</v>
       </c>
     </row>
     <row r="36">
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.664399999999997</v>
+        <v>-7.7385</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1083,10 +1083,10 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.275999999999997</v>
+        <v>-7.621199999999996</v>
       </c>
       <c r="E38" t="n">
-        <v>17.0466</v>
+        <v>16.65129999999999</v>
       </c>
     </row>
     <row r="39">
@@ -1171,7 +1171,7 @@
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.23720000000002</v>
+        <v>17.23160000000001</v>
       </c>
     </row>
     <row r="44">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>15.92449999999999</v>
+        <v>16.06299999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.1456</v>
+        <v>16.032</v>
       </c>
     </row>
     <row r="48">
@@ -1304,10 +1304,10 @@
         <v>-13.17</v>
       </c>
       <c r="D51" t="n">
-        <v>-8.736600000000001</v>
+        <v>-8.594299999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>16.5136</v>
+        <v>16.3626</v>
       </c>
     </row>
     <row r="52">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.314999999999997</v>
+        <v>-7.249699999999998</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1372,7 +1372,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-8.725299999999997</v>
+        <v>-8.627799999999999</v>
       </c>
       <c r="E55" t="n">
         <v>16.57</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.51210000000001</v>
+        <v>16.0212</v>
       </c>
     </row>
     <row r="58">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>18.26880000000002</v>
+        <v>18.11780000000001</v>
       </c>
     </row>
     <row r="64">
@@ -1604,13 +1604,13 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.446799999999995</v>
+        <v>5.373599999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.197099999999995</v>
+        <v>-7.126999999999996</v>
       </c>
       <c r="E69" t="n">
         <v>17.51</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-8.419200000000002</v>
+        <v>-8.350200000000003</v>
       </c>
       <c r="E70" t="n">
-        <v>16.67580000000001</v>
+        <v>16.9766</v>
       </c>
     </row>
     <row r="71">
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.292999999999997</v>
+        <v>5.199299999999998</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.706500000000002</v>
+        <v>9.789399999999999</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-8.021300000000004</v>
+        <v>-7.880200000000007</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1825,7 +1825,7 @@
         <v>-22.09</v>
       </c>
       <c r="B82" t="n">
-        <v>7.4205</v>
+        <v>6.461599999999999</v>
       </c>
       <c r="C82" t="n">
         <v>-14.08</v>
@@ -1842,13 +1842,13 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.204699999999998</v>
+        <v>5.577900000000001</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-9.283799999999992</v>
+        <v>-9.059299999999997</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1936,7 +1936,7 @@
         <v>-8.140000000000001</v>
       </c>
       <c r="E88" t="n">
-        <v>16.51750000000001</v>
+        <v>16.4273</v>
       </c>
     </row>
     <row r="89">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>7.174299999999999</v>
+        <v>6.7385</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.60430000000001</v>
+        <v>16.58459999999999</v>
       </c>
     </row>
     <row r="100">
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.710299999999997</v>
+        <v>-7.879599999999998</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
